--- a/SRKW/SRKW_Inputs_New.xlsx
+++ b/SRKW/SRKW_Inputs_New.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620" tabRatio="805" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620" tabRatio="805" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="R_In_RunID" sheetId="11" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="StkLUT" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,6 +36,40 @@
     <author>Jon Carey</author>
   </authors>
   <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jon Carey:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+It is important that the runs in column B contain the "action fisheries" and that column C contains the "no action" model runs.  The names of these columns will be use to set the name of each run in the R script</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jon Carey</author>
+  </authors>
+  <commentList>
     <comment ref="C49" authorId="0" shapeId="0">
       <text>
         <r>
@@ -45,7 +78,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jon Carey:</t>
         </r>
@@ -54,7 +87,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Was excluded in previous analysis, include now per LL</t>
@@ -69,7 +102,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jon Carey:</t>
         </r>
@@ -78,7 +111,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Was excluded in previous analysis, include now per LL</t>
@@ -93,7 +126,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jon Carey:</t>
         </r>
@@ -102,7 +135,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Was excluded in previous analysis, include now per LL</t>
@@ -117,7 +150,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jon Carey:</t>
         </r>
@@ -126,7 +159,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Was excluded in previous analysis, include now per LL</t>
@@ -141,7 +174,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jon Carey:</t>
         </r>
@@ -150,7 +183,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Was excluded in previous analysis, include now per LL</t>
@@ -165,7 +198,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jon Carey:</t>
         </r>
@@ -174,7 +207,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Exclude catch, see [Marine Terminal Area Exclusions - Methodology Description.pdf]</t>
@@ -189,7 +222,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jon Carey:</t>
         </r>
@@ -198,7 +231,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Exclude catch, see [Marine Terminal Area Exclusions - Methodology Description.pdf]</t>
@@ -213,7 +246,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jon Carey:</t>
         </r>
@@ -222,7 +255,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 See [Marine Terminal Area Exclusions - Methodology Description.pdf]</t>
@@ -237,7 +270,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jon Carey:</t>
         </r>
@@ -246,7 +279,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Exclude catch, see [Marine Terminal Area Exclusions - Methodology Description.pdf]</t>
@@ -261,7 +294,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jon Carey:</t>
         </r>
@@ -270,7 +303,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Exclude catch, see [Marine Terminal Area Exclusions - Methodology Description.pdf]</t>
@@ -281,7 +314,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jon Carey</author>
@@ -295,7 +328,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jon Carey:</t>
         </r>
@@ -304,7 +337,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 from [SRKW_Needs_New.xlsx]</t>
@@ -315,7 +348,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jon Carey</author>
@@ -353,7 +386,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jon Carey:</t>
         </r>
@@ -362,7 +395,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 these are new BP distributions</t>
@@ -373,14 +406,13 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Eric Ward</author>
     <author>Jon Carey</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -390,7 +422,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Eric Ward:</t>
+          <t>Jon Carey:</t>
         </r>
         <r>
           <rPr>
@@ -400,11 +432,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-determines steepness</t>
+value set to 1 as selectivity is not being used in this assessment.  Value from previous assessment in column C</t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -414,7 +446,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Eric Ward:</t>
+          <t>Jon Carey:</t>
         </r>
         <r>
           <rPr>
@@ -424,60 +456,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-determines length at which half are selected</t>
+value set to 1 as selectivity is not being used in this assessment.  Value from previous assessment in column C</t>
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eric Ward:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-minimum
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eric Ward:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-maximum</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="1" shapeId="0">
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -505,7 +488,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jon Carey</author>
@@ -519,7 +502,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jon Carey:</t>
         </r>
@@ -528,7 +511,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 see [LarriesEnergyTierCalls.xlsx]</t>
@@ -890,12 +873,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Likely</t>
-  </si>
-  <si>
-    <t>NoAction</t>
-  </si>
-  <si>
     <t>Weight</t>
   </si>
   <si>
@@ -1063,6 +1040,12 @@
   <si>
     <t>MaxPER_Max</t>
   </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Valid_ZeroUS</t>
+  </si>
 </sst>
 </file>
 
@@ -1073,7 +1056,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1122,20 +1105,15 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1205,6 +1183,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,7 +1441,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1538,6 +1522,7 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1819,14 +1804,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1835,11 +1820,11 @@
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>117</v>
+      <c r="B1" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2097,6 +2082,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2105,19 +2091,18 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H469"/>
+  <dimension ref="A1:F469"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2137,7 +2122,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2159,9 +2144,8 @@
         <f>IF(D2&gt;Parameters!$B$4,E2*(Parameters!$B$5+(Parameters!$B$6-Parameters!$B$5)*1/(1+EXP(-Parameters!$B$2*(D2-Parameters!$B$3)))),0)</f>
         <v>543.93678399591897</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2183,9 +2167,8 @@
         <f>IF(D3&gt;Parameters!$B$4,E3*(Parameters!$B$5+(Parameters!$B$6-Parameters!$B$5)*1/(1+EXP(-Parameters!$B$2*(D3-Parameters!$B$3)))),0)</f>
         <v>1321.6757643328206</v>
       </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2207,9 +2190,8 @@
         <f>IF(D4&gt;Parameters!$B$4,E4*(Parameters!$B$5+(Parameters!$B$6-Parameters!$B$5)*1/(1+EXP(-Parameters!$B$2*(D4-Parameters!$B$3)))),0)</f>
         <v>1879.7679742988689</v>
       </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2233,9 +2215,8 @@
         <f>IF(D5&gt;Parameters!$B$4,E5*(Parameters!$B$5+(Parameters!$B$6-Parameters!$B$5)*1/(1+EXP(-Parameters!$B$2*(D5-Parameters!$B$3)))),0)</f>
         <v>3183.597927083194</v>
       </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2259,9 +2240,8 @@
         <f>IF(D6&gt;Parameters!$B$4,E6*(Parameters!$B$5+(Parameters!$B$6-Parameters!$B$5)*1/(1+EXP(-Parameters!$B$2*(D6-Parameters!$B$3)))),0)</f>
         <v>4477.7428808521727</v>
       </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2285,9 +2265,8 @@
         <f>IF(D7&gt;Parameters!$B$4,E7*(Parameters!$B$5+(Parameters!$B$6-Parameters!$B$5)*1/(1+EXP(-Parameters!$B$2*(D7-Parameters!$B$3)))),0)</f>
         <v>5213.0445836916988</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2311,9 +2290,8 @@
         <f>IF(D8&gt;Parameters!$B$4,E8*(Parameters!$B$5+(Parameters!$B$6-Parameters!$B$5)*1/(1+EXP(-Parameters!$B$2*(D8-Parameters!$B$3)))),0)</f>
         <v>6664.550044675867</v>
       </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2337,9 +2315,8 @@
         <f>IF(D9&gt;Parameters!$B$4,E9*(Parameters!$B$5+(Parameters!$B$6-Parameters!$B$5)*1/(1+EXP(-Parameters!$B$2*(D9-Parameters!$B$3)))),0)</f>
         <v>7905.7208357044956</v>
       </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2363,9 +2340,8 @@
         <f>IF(D10&gt;Parameters!$B$4,E10*(Parameters!$B$5+(Parameters!$B$6-Parameters!$B$5)*1/(1+EXP(-Parameters!$B$2*(D10-Parameters!$B$3)))),0)</f>
         <v>8556.5083442359974</v>
       </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2389,9 +2365,8 @@
         <f>IF(D11&gt;Parameters!$B$4,E11*(Parameters!$B$5+(Parameters!$B$6-Parameters!$B$5)*1/(1+EXP(-Parameters!$B$2*(D11-Parameters!$B$3)))),0)</f>
         <v>9760.6972445613028</v>
       </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2415,9 +2390,8 @@
         <f>IF(D12&gt;Parameters!$B$4,E12*(Parameters!$B$5+(Parameters!$B$6-Parameters!$B$5)*1/(1+EXP(-Parameters!$B$2*(D12-Parameters!$B$3)))),0)</f>
         <v>10726.49669213374</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2441,9 +2415,8 @@
         <f>IF(D13&gt;Parameters!$B$4,E13*(Parameters!$B$5+(Parameters!$B$6-Parameters!$B$5)*1/(1+EXP(-Parameters!$B$2*(D13-Parameters!$B$3)))),0)</f>
         <v>11214.375079617568</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>A2+1</f>
         <v>2</v>
@@ -2469,7 +2442,7 @@
         <v>335.57303809249458</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ref="A15:A78" si="2">A3+1</f>
         <v>2</v>
@@ -2495,7 +2468,7 @@
         <v>976.78792161606418</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -14311,8 +14284,8 @@
   </sheetPr>
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C53" sqref="A47:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14328,7 +14301,7 @@
         <v>113</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -15148,7 +15121,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15159,10 +15132,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -15171,16 +15144,16 @@
         <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -15188,7 +15161,7 @@
         <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -15214,7 +15187,7 @@
         <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -15240,7 +15213,7 @@
         <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -15266,7 +15239,7 @@
         <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -15292,7 +15265,7 @@
         <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -15318,7 +15291,7 @@
         <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -15353,7 +15326,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15369,16 +15342,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D1" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="44" t="s">
         <v>163</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -15386,7 +15359,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="37">
         <v>1.8500000000000003E-2</v>
@@ -15403,7 +15376,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C3" s="37">
         <v>8.3999999999999991E-2</v>
@@ -15420,7 +15393,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" s="37">
         <v>5.3999999999999999E-2</v>
@@ -15437,7 +15410,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C5" s="37">
         <v>0.1245</v>
@@ -15454,7 +15427,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" s="37">
         <v>4.9000000000000002E-2</v>
@@ -15471,7 +15444,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C7" s="37">
         <v>3.3000000000000002E-2</v>
@@ -15488,7 +15461,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" s="37">
         <v>3.1E-2</v>
@@ -15505,7 +15478,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="37">
         <v>2.3E-2</v>
@@ -15522,7 +15495,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C10" s="37">
         <v>3.15E-2</v>
@@ -15539,7 +15512,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C11" s="37">
         <v>3.15E-2</v>
@@ -15556,7 +15529,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="37">
         <v>1.3999999999999999E-2</v>
@@ -15573,7 +15546,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" s="37">
         <v>2E-3</v>
@@ -15590,7 +15563,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="37">
         <v>1.55E-2</v>
@@ -15607,7 +15580,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C15" s="37">
         <v>3.0000000000000001E-3</v>
@@ -15624,7 +15597,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C16" s="37">
         <v>5.0000000000000001E-4</v>
@@ -15641,7 +15614,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C17" s="37">
         <v>8.5000000000000006E-3</v>
@@ -15658,7 +15631,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C18" s="37">
         <v>0</v>
@@ -15675,7 +15648,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C19" s="37">
         <v>0.14899999999999999</v>
@@ -15692,7 +15665,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" s="37">
         <v>1.2E-2</v>
@@ -15709,7 +15682,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" s="37">
         <v>7.5999999999999998E-2</v>
@@ -15726,7 +15699,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C22" s="37">
         <v>0.14349999999999999</v>
@@ -15743,7 +15716,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C23" s="37">
         <v>3.5000000000000001E-3</v>
@@ -15760,7 +15733,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C24" s="37">
         <v>0.28199999999999997</v>
@@ -15777,7 +15750,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C25" s="37">
         <v>0.29649999999999999</v>
@@ -15794,7 +15767,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C26" s="37">
         <v>3.7394999999999998E-2</v>
@@ -15811,7 +15784,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C27" s="37">
         <v>0.17741625000000003</v>
@@ -15828,7 +15801,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C28" s="37">
         <v>9.8000000000000004E-2</v>
@@ -15845,7 +15818,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C29" s="37">
         <v>0.28300000000000003</v>
@@ -15862,7 +15835,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C30" s="37">
         <v>0.28399999999999997</v>
@@ -15879,7 +15852,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C31" s="37">
         <v>2.1500000000000002E-2</v>
@@ -15896,7 +15869,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C32" s="37">
         <v>0.13999999999999999</v>
@@ -15913,7 +15886,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C33" s="37">
         <v>9.5500000000000002E-2</v>
@@ -15930,7 +15903,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C34" s="37">
         <v>9.4999999999999998E-3</v>
@@ -15947,7 +15920,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C35" s="37">
         <v>8.4999999999999992E-2</v>
@@ -15964,7 +15937,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C36" s="37">
         <v>0</v>
@@ -15981,7 +15954,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C37" s="37">
         <v>0.23749999999999999</v>
@@ -15998,7 +15971,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C38" s="37">
         <v>0.40200000000000002</v>
@@ -16015,7 +15988,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C39" s="37">
         <v>0.18049999999999999</v>
@@ -16055,7 +16028,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16070,7 +16043,7 @@
         <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -16127,13 +16100,13 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -18345,8 +18318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18363,7 +18336,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>22</v>
